--- a/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_ip_calibrated.xlsx
+++ b/article_6_tanzania_sri_lanka_peru/transformations/templates/calibrated/united_republic_of_tanzania/model_input_variables_united_republic_of_tanzania_ip_calibrated.xlsx
@@ -12847,112 +12847,112 @@
         <v>1</v>
       </c>
       <c r="J97">
-        <v>0.056947487651181</v>
+        <v>-5.520523824924555</v>
       </c>
       <c r="K97">
-        <v>0.056947487651181</v>
+        <v>-2.547558519180852</v>
       </c>
       <c r="L97">
-        <v>0.056947487651181</v>
+        <v>3.003429185874062</v>
       </c>
       <c r="M97">
-        <v>0.056947487651181</v>
+        <v>13.23380323545486</v>
       </c>
       <c r="N97">
-        <v>0.056947487651181</v>
+        <v>-3.795187469171131</v>
       </c>
       <c r="O97">
-        <v>0.056947487651181</v>
+        <v>2</v>
       </c>
       <c r="P97">
-        <v>0.056947487651181</v>
+        <v>1.966666666666666</v>
       </c>
       <c r="Q97">
-        <v>0.056947487651181</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="R97">
-        <v>0.056947487651181</v>
+        <v>1.9</v>
       </c>
       <c r="S97">
-        <v>0.056947487651181</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="T97">
-        <v>0.056947487651181</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="U97">
-        <v>0.056947487651181</v>
+        <v>1.8</v>
       </c>
       <c r="V97">
-        <v>0.056947487651181</v>
+        <v>1.766666666666667</v>
       </c>
       <c r="W97">
-        <v>0.056947487651181</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="X97">
-        <v>0.056947487651181</v>
+        <v>1.7</v>
       </c>
       <c r="Y97">
-        <v>0.056947487651181</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z97">
-        <v>0.056947487651181</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="AA97">
-        <v>0.0569474876511811</v>
+        <v>1.6</v>
       </c>
       <c r="AB97">
-        <v>0.0569474876511811</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="AC97">
-        <v>0.0569474876511811</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AD97">
-        <v>0.0569474876511811</v>
+        <v>1.5</v>
       </c>
       <c r="AE97">
-        <v>0.0569474876511811</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AF97">
-        <v>0.0569474876511811</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="AG97">
-        <v>0.0569474876511811</v>
+        <v>1.4</v>
       </c>
       <c r="AH97">
-        <v>0.0569474876511811</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="AI97">
-        <v>0.0569474876511811</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="AJ97">
-        <v>0.0569474876511811</v>
+        <v>1.3</v>
       </c>
       <c r="AK97">
-        <v>0.0569474876511811</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="AL97">
-        <v>0.0569474876511811</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="AM97">
-        <v>0.0569474876511811</v>
+        <v>1.2</v>
       </c>
       <c r="AN97">
-        <v>0.0569474876511811</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="AO97">
-        <v>0.0569474876511811</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AP97">
-        <v>0.0569474876511811</v>
+        <v>1.1</v>
       </c>
       <c r="AQ97">
-        <v>0.0569474876511811</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="AR97">
-        <v>0.0569474876511811</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="AS97">
-        <v>0.0569474876511811</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:45">
@@ -12969,112 +12969,112 @@
         <v>1</v>
       </c>
       <c r="J98">
-        <v>0.109927728802231</v>
+        <v>-1.460675881452281</v>
       </c>
       <c r="K98">
-        <v>0.109927728802231</v>
+        <v>4.259374355052627</v>
       </c>
       <c r="L98">
-        <v>0.109927728802231</v>
+        <v>-0.3198349129966338</v>
       </c>
       <c r="M98">
-        <v>0.109927728802231</v>
+        <v>1.54112433710627</v>
       </c>
       <c r="N98">
-        <v>0.109927728802231</v>
+        <v>-2.869166219388794</v>
       </c>
       <c r="O98">
-        <v>0.109927728802231</v>
+        <v>1.461096500176394</v>
       </c>
       <c r="P98">
-        <v>0.109927728802231</v>
+        <v>1.445726616837181</v>
       </c>
       <c r="Q98">
-        <v>0.109927728802231</v>
+        <v>1.430356733497968</v>
       </c>
       <c r="R98">
-        <v>0.109927728802231</v>
+        <v>1.414986850158755</v>
       </c>
       <c r="S98">
-        <v>0.109927728802231</v>
+        <v>1.399616966819542</v>
       </c>
       <c r="T98">
-        <v>0.109927728802231</v>
+        <v>1.384247083480329</v>
       </c>
       <c r="U98">
-        <v>0.109927728802231</v>
+        <v>1.368877200141115</v>
       </c>
       <c r="V98">
-        <v>0.109927728802231</v>
+        <v>1.353507316801903</v>
       </c>
       <c r="W98">
-        <v>0.109927728802231</v>
+        <v>1.338137433462689</v>
       </c>
       <c r="X98">
-        <v>0.109927728802231</v>
+        <v>1.322767550123476</v>
       </c>
       <c r="Y98">
-        <v>0.109927728802231</v>
+        <v>1.307397666784263</v>
       </c>
       <c r="Z98">
-        <v>0.109927728802231</v>
+        <v>1.29202778344505</v>
       </c>
       <c r="AA98">
-        <v>0.109927728802232</v>
+        <v>1.276657900105837</v>
       </c>
       <c r="AB98">
-        <v>0.109927728802232</v>
+        <v>1.261288016766623</v>
       </c>
       <c r="AC98">
-        <v>0.109927728802232</v>
+        <v>1.24591813342741</v>
       </c>
       <c r="AD98">
-        <v>0.109927728802232</v>
+        <v>1.230548250088197</v>
       </c>
       <c r="AE98">
-        <v>0.109927728802232</v>
+        <v>1.215178366748984</v>
       </c>
       <c r="AF98">
-        <v>0.109927728802232</v>
+        <v>1.199808483409771</v>
       </c>
       <c r="AG98">
-        <v>0.109927728802232</v>
+        <v>1.184438600070558</v>
       </c>
       <c r="AH98">
-        <v>0.109927728802232</v>
+        <v>1.169068716731344</v>
       </c>
       <c r="AI98">
-        <v>0.109927728802232</v>
+        <v>1.153698833392131</v>
       </c>
       <c r="AJ98">
-        <v>0.109927728802232</v>
+        <v>1.138328950052918</v>
       </c>
       <c r="AK98">
-        <v>0.109927728802232</v>
+        <v>1.122959066713705</v>
       </c>
       <c r="AL98">
-        <v>0.109927728802232</v>
+        <v>1.107589183374492</v>
       </c>
       <c r="AM98">
-        <v>0.109927728802232</v>
+        <v>1.092219300035279</v>
       </c>
       <c r="AN98">
-        <v>0.109927728802232</v>
+        <v>1.076849416696066</v>
       </c>
       <c r="AO98">
-        <v>0.109927728802232</v>
+        <v>1.061479533356852</v>
       </c>
       <c r="AP98">
-        <v>0.109927728802232</v>
+        <v>1.046109650017639</v>
       </c>
       <c r="AQ98">
-        <v>0.109927728802232</v>
+        <v>1.030739766678426</v>
       </c>
       <c r="AR98">
-        <v>0.109927728802232</v>
+        <v>1.015369883339213</v>
       </c>
       <c r="AS98">
-        <v>0.109927728802232</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:45">
@@ -13091,112 +13091,112 @@
         <v>1</v>
       </c>
       <c r="J99">
-        <v>0.0467616205881656</v>
+        <v>-2.551096421861058</v>
       </c>
       <c r="K99">
-        <v>0.0467616205881656</v>
+        <v>-3.090125804586982</v>
       </c>
       <c r="L99">
-        <v>0.0467616205881656</v>
+        <v>3.739108502665765</v>
       </c>
       <c r="M99">
-        <v>0.0467616205881656</v>
+        <v>-2.473855450765245</v>
       </c>
       <c r="N99">
-        <v>0.0467616205881656</v>
+        <v>0.6244788633502841</v>
       </c>
       <c r="O99">
-        <v>0.0467616205881656</v>
+        <v>1.644346923801487</v>
       </c>
       <c r="P99">
-        <v>0.0467616205881656</v>
+        <v>1.622868693008104</v>
       </c>
       <c r="Q99">
-        <v>0.0467616205881656</v>
+        <v>1.601390462214721</v>
       </c>
       <c r="R99">
-        <v>0.0467616205881656</v>
+        <v>1.579912231421338</v>
       </c>
       <c r="S99">
-        <v>0.0467616205881656</v>
+        <v>1.558434000627955</v>
       </c>
       <c r="T99">
-        <v>0.0467616205881656</v>
+        <v>1.536955769834572</v>
       </c>
       <c r="U99">
-        <v>0.0467616205881656</v>
+        <v>1.51547753904119</v>
       </c>
       <c r="V99">
-        <v>0.0467616205881656</v>
+        <v>1.493999308247807</v>
       </c>
       <c r="W99">
-        <v>0.0467616205881656</v>
+        <v>1.472521077454424</v>
       </c>
       <c r="X99">
-        <v>0.0467616205881656</v>
+        <v>1.451042846661041</v>
       </c>
       <c r="Y99">
-        <v>0.0467616205881656</v>
+        <v>1.429564615867658</v>
       </c>
       <c r="Z99">
-        <v>0.0467616205881656</v>
+        <v>1.408086385074275</v>
       </c>
       <c r="AA99">
-        <v>0.0467616205881656</v>
+        <v>1.386608154280892</v>
       </c>
       <c r="AB99">
-        <v>0.0467616205881656</v>
+        <v>1.365129923487509</v>
       </c>
       <c r="AC99">
-        <v>0.0467616205881656</v>
+        <v>1.343651692694126</v>
       </c>
       <c r="AD99">
-        <v>0.0467616205881656</v>
+        <v>1.322173461900744</v>
       </c>
       <c r="AE99">
-        <v>0.0467616205881656</v>
+        <v>1.30069523110736</v>
       </c>
       <c r="AF99">
-        <v>0.0467616205881656</v>
+        <v>1.279217000313978</v>
       </c>
       <c r="AG99">
-        <v>0.0467616205881656</v>
+        <v>1.257738769520595</v>
       </c>
       <c r="AH99">
-        <v>0.0467616205881656</v>
+        <v>1.236260538727212</v>
       </c>
       <c r="AI99">
-        <v>0.0467616205881656</v>
+        <v>1.214782307933829</v>
       </c>
       <c r="AJ99">
-        <v>0.0467616205881656</v>
+        <v>1.193304077140446</v>
       </c>
       <c r="AK99">
-        <v>0.0467616205881656</v>
+        <v>1.171825846347063</v>
       </c>
       <c r="AL99">
-        <v>0.0467616205881656</v>
+        <v>1.15034761555368</v>
       </c>
       <c r="AM99">
-        <v>0.0467616205881656</v>
+        <v>1.128869384760297</v>
       </c>
       <c r="AN99">
-        <v>0.0467616205881656</v>
+        <v>1.107391153966915</v>
       </c>
       <c r="AO99">
-        <v>0.0467616205881656</v>
+        <v>1.085912923173532</v>
       </c>
       <c r="AP99">
-        <v>0.0467616205881656</v>
+        <v>1.064434692380149</v>
       </c>
       <c r="AQ99">
-        <v>0.0467616205881656</v>
+        <v>1.042956461586766</v>
       </c>
       <c r="AR99">
-        <v>0.0467616205881656</v>
+        <v>1.021478230793383</v>
       </c>
       <c r="AS99">
-        <v>0.0467616205881656</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:45">
@@ -13213,112 +13213,112 @@
         <v>1</v>
       </c>
       <c r="J100">
-        <v>0.0406843818147015</v>
+        <v>15.92693268961015</v>
       </c>
       <c r="K100">
-        <v>0.0406843818147015</v>
+        <v>-8.544757829484091</v>
       </c>
       <c r="L100">
-        <v>0.0406843818147015</v>
+        <v>0.2326590120655784</v>
       </c>
       <c r="M100">
-        <v>0.0406843818147015</v>
+        <v>8.258886453006633</v>
       </c>
       <c r="N100">
-        <v>0.0406843818147015</v>
+        <v>-3.718653131551056</v>
       </c>
       <c r="O100">
-        <v>0.0406843818147015</v>
+        <v>2</v>
       </c>
       <c r="P100">
-        <v>0.0406843818147015</v>
+        <v>1.966666666666666</v>
       </c>
       <c r="Q100">
-        <v>0.0406843818147015</v>
+        <v>1.933333333333333</v>
       </c>
       <c r="R100">
-        <v>0.0406843818147015</v>
+        <v>1.9</v>
       </c>
       <c r="S100">
-        <v>0.0406843818147015</v>
+        <v>1.866666666666667</v>
       </c>
       <c r="T100">
-        <v>0.0406843818147015</v>
+        <v>1.833333333333333</v>
       </c>
       <c r="U100">
-        <v>0.0406843818147015</v>
+        <v>1.8</v>
       </c>
       <c r="V100">
-        <v>0.0406843818147015</v>
+        <v>1.766666666666667</v>
       </c>
       <c r="W100">
-        <v>0.0406843818147015</v>
+        <v>1.733333333333333</v>
       </c>
       <c r="X100">
-        <v>0.0406843818147015</v>
+        <v>1.7</v>
       </c>
       <c r="Y100">
-        <v>0.0406843818147015</v>
+        <v>1.666666666666667</v>
       </c>
       <c r="Z100">
-        <v>0.0406843818147015</v>
+        <v>1.633333333333333</v>
       </c>
       <c r="AA100">
-        <v>0.0406843818147016</v>
+        <v>1.6</v>
       </c>
       <c r="AB100">
-        <v>0.0406843818147016</v>
+        <v>1.566666666666667</v>
       </c>
       <c r="AC100">
-        <v>0.0406843818147016</v>
+        <v>1.533333333333333</v>
       </c>
       <c r="AD100">
-        <v>0.0406843818147016</v>
+        <v>1.5</v>
       </c>
       <c r="AE100">
-        <v>0.0406843818147016</v>
+        <v>1.466666666666667</v>
       </c>
       <c r="AF100">
-        <v>0.0406843818147016</v>
+        <v>1.433333333333333</v>
       </c>
       <c r="AG100">
-        <v>0.0406843818147016</v>
+        <v>1.4</v>
       </c>
       <c r="AH100">
-        <v>0.0406843818147016</v>
+        <v>1.366666666666667</v>
       </c>
       <c r="AI100">
-        <v>0.0406843818147016</v>
+        <v>1.333333333333334</v>
       </c>
       <c r="AJ100">
-        <v>0.0406843818147016</v>
+        <v>1.3</v>
       </c>
       <c r="AK100">
-        <v>0.0406843818147016</v>
+        <v>1.266666666666667</v>
       </c>
       <c r="AL100">
-        <v>0.0406843818147016</v>
+        <v>1.233333333333333</v>
       </c>
       <c r="AM100">
-        <v>0.0406843818147016</v>
+        <v>1.2</v>
       </c>
       <c r="AN100">
-        <v>0.0406843818147016</v>
+        <v>1.166666666666666</v>
       </c>
       <c r="AO100">
-        <v>0.0406843818147016</v>
+        <v>1.133333333333333</v>
       </c>
       <c r="AP100">
-        <v>0.0406843818147016</v>
+        <v>1.1</v>
       </c>
       <c r="AQ100">
-        <v>0.0406843818147016</v>
+        <v>1.066666666666667</v>
       </c>
       <c r="AR100">
-        <v>0.0406843818147016</v>
+        <v>1.033333333333333</v>
       </c>
       <c r="AS100">
-        <v>0.0406843818147016</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:45">
@@ -13335,112 +13335,112 @@
         <v>1</v>
       </c>
       <c r="J101">
-        <v>0.0240312533986499</v>
+        <v>-10.41726404460411</v>
       </c>
       <c r="K101">
-        <v>0.0240312533986499</v>
+        <v>-6.540267598000665</v>
       </c>
       <c r="L101">
-        <v>0.0240312533986499</v>
+        <v>12.73917388635665</v>
       </c>
       <c r="M101">
-        <v>0.0240312533986499</v>
+        <v>-11.2859738625805</v>
       </c>
       <c r="N101">
-        <v>0.0240312533986499</v>
+        <v>282.7268929788896</v>
       </c>
       <c r="O101">
-        <v>0.0240312533986499</v>
+        <v>-0.5</v>
       </c>
       <c r="P101">
-        <v>0.0240312533986499</v>
+        <v>-0.45</v>
       </c>
       <c r="Q101">
-        <v>0.0240312533986499</v>
+        <v>-0.4</v>
       </c>
       <c r="R101">
-        <v>0.0240312533986499</v>
+        <v>-0.35</v>
       </c>
       <c r="S101">
-        <v>0.0240312533986499</v>
+        <v>-0.3</v>
       </c>
       <c r="T101">
-        <v>0.0240312533986499</v>
+        <v>-0.25</v>
       </c>
       <c r="U101">
-        <v>0.0240312533986499</v>
+        <v>-0.1999999999999999</v>
       </c>
       <c r="V101">
-        <v>0.0240312533986499</v>
+        <v>-0.1499999999999999</v>
       </c>
       <c r="W101">
-        <v>0.0240312533986499</v>
+        <v>-0.09999999999999989</v>
       </c>
       <c r="X101">
-        <v>0.0240312533986499</v>
+        <v>-0.0499999999999999</v>
       </c>
       <c r="Y101">
-        <v>0.0240312533986499</v>
+        <v>0</v>
       </c>
       <c r="Z101">
-        <v>0.0240312533986499</v>
+        <v>0.05</v>
       </c>
       <c r="AA101">
-        <v>0.02403125339865</v>
+        <v>0.1</v>
       </c>
       <c r="AB101">
-        <v>0.02403125339865</v>
+        <v>0.15</v>
       </c>
       <c r="AC101">
-        <v>0.02403125339865</v>
+        <v>0.2</v>
       </c>
       <c r="AD101">
-        <v>0.02403125339865</v>
+        <v>0.25</v>
       </c>
       <c r="AE101">
-        <v>0.02403125339865</v>
+        <v>0.3</v>
       </c>
       <c r="AF101">
-        <v>0.02403125339865</v>
+        <v>0.3500000000000001</v>
       </c>
       <c r="AG101">
-        <v>0.02403125339865</v>
+        <v>0.4</v>
       </c>
       <c r="AH101">
-        <v>0.02403125339865</v>
+        <v>0.45</v>
       </c>
       <c r="AI101">
-        <v>0.02403125339865</v>
+        <v>0.5</v>
       </c>
       <c r="AJ101">
-        <v>0.02403125339865</v>
+        <v>0.55</v>
       </c>
       <c r="AK101">
-        <v>0.02403125339865</v>
+        <v>0.6000000000000001</v>
       </c>
       <c r="AL101">
-        <v>0.02403125339865</v>
+        <v>0.6500000000000001</v>
       </c>
       <c r="AM101">
-        <v>0.02403125339865</v>
+        <v>0.7000000000000002</v>
       </c>
       <c r="AN101">
-        <v>0.02403125339865</v>
+        <v>0.75</v>
       </c>
       <c r="AO101">
-        <v>0.02403125339865</v>
+        <v>0.8</v>
       </c>
       <c r="AP101">
-        <v>0.02403125339865</v>
+        <v>0.8500000000000001</v>
       </c>
       <c r="AQ101">
-        <v>0.02403125339865</v>
+        <v>0.9000000000000001</v>
       </c>
       <c r="AR101">
-        <v>0.02403125339865</v>
+        <v>0.9500000000000002</v>
       </c>
       <c r="AS101">
-        <v>0.02403125339865</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:45">
@@ -13457,112 +13457,112 @@
         <v>1</v>
       </c>
       <c r="J102">
-        <v>0.0461351747938064</v>
+        <v>-1.984781147171634</v>
       </c>
       <c r="K102">
-        <v>0.0461351747938064</v>
+        <v>2.524331741032412</v>
       </c>
       <c r="L102">
-        <v>0.0461351747938064</v>
+        <v>12.16138875779286</v>
       </c>
       <c r="M102">
-        <v>0.0461351747938064</v>
+        <v>0.1766972324656666</v>
       </c>
       <c r="N102">
-        <v>0.0461351747938064</v>
+        <v>-6.892382667816338</v>
       </c>
       <c r="O102">
-        <v>0.0461351747938064</v>
+        <v>1.154475891713225</v>
       </c>
       <c r="P102">
-        <v>0.0461351747938064</v>
+        <v>1.149326695322784</v>
       </c>
       <c r="Q102">
-        <v>0.0461351747938064</v>
+        <v>1.144177498932343</v>
       </c>
       <c r="R102">
-        <v>0.0461351747938064</v>
+        <v>1.139028302541903</v>
       </c>
       <c r="S102">
-        <v>0.0461351747938064</v>
+        <v>1.133879106151462</v>
       </c>
       <c r="T102">
-        <v>0.0461351747938064</v>
+        <v>1.128729909761021</v>
       </c>
       <c r="U102">
-        <v>0.0461351747938064</v>
+        <v>1.12358071337058</v>
       </c>
       <c r="V102">
-        <v>0.0461351747938064</v>
+        <v>1.118431516980139</v>
       </c>
       <c r="W102">
-        <v>0.0461351747938064</v>
+        <v>1.113282320589698</v>
       </c>
       <c r="X102">
-        <v>0.0461351747938064</v>
+        <v>1.108133124199258</v>
       </c>
       <c r="Y102">
-        <v>0.0461351747938064</v>
+        <v>1.102983927808817</v>
       </c>
       <c r="Z102">
-        <v>0.0461351747938064</v>
+        <v>1.097834731418376</v>
       </c>
       <c r="AA102">
-        <v>0.0461351747938064</v>
+        <v>1.092685535027935</v>
       </c>
       <c r="AB102">
-        <v>0.0461351747938064</v>
+        <v>1.087536338637494</v>
       </c>
       <c r="AC102">
-        <v>0.0461351747938064</v>
+        <v>1.082387142247054</v>
       </c>
       <c r="AD102">
-        <v>0.0461351747938064</v>
+        <v>1.077237945856613</v>
       </c>
       <c r="AE102">
-        <v>0.0461351747938064</v>
+        <v>1.072088749466171</v>
       </c>
       <c r="AF102">
-        <v>0.0461351747938064</v>
+        <v>1.066939553075731</v>
       </c>
       <c r="AG102">
-        <v>0.0461351747938064</v>
+        <v>1.06179035668529</v>
       </c>
       <c r="AH102">
-        <v>0.0461351747938064</v>
+        <v>1.056641160294849</v>
       </c>
       <c r="AI102">
-        <v>0.0461351747938064</v>
+        <v>1.051491963904408</v>
       </c>
       <c r="AJ102">
-        <v>0.0461351747938064</v>
+        <v>1.046342767513968</v>
       </c>
       <c r="AK102">
-        <v>0.0461351747938064</v>
+        <v>1.041193571123527</v>
       </c>
       <c r="AL102">
-        <v>0.0461351747938064</v>
+        <v>1.036044374733086</v>
       </c>
       <c r="AM102">
-        <v>0.0461351747938064</v>
+        <v>1.030895178342645</v>
       </c>
       <c r="AN102">
-        <v>0.0461351747938064</v>
+        <v>1.025745981952204</v>
       </c>
       <c r="AO102">
-        <v>0.0461351747938064</v>
+        <v>1.020596785561764</v>
       </c>
       <c r="AP102">
-        <v>0.0461351747938064</v>
+        <v>1.015447589171323</v>
       </c>
       <c r="AQ102">
-        <v>0.0461351747938064</v>
+        <v>1.010298392780882</v>
       </c>
       <c r="AR102">
-        <v>0.0461351747938064</v>
+        <v>1.005149196390441</v>
       </c>
       <c r="AS102">
-        <v>0.0461351747938064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:45">
@@ -13579,112 +13579,112 @@
         <v>1</v>
       </c>
       <c r="J103">
-        <v>0.5</v>
+        <v>-0.2432238871446033</v>
       </c>
       <c r="K103">
-        <v>0.5</v>
+        <v>-9.232889052402268</v>
       </c>
       <c r="L103">
-        <v>0.5</v>
+        <v>-14.3008825456951</v>
       </c>
       <c r="M103">
-        <v>0.5</v>
+        <v>13.00673707146433</v>
       </c>
       <c r="N103">
-        <v>0.5</v>
+        <v>64.17514964199431</v>
       </c>
       <c r="O103">
-        <v>0.5</v>
+        <v>-0.2432238871446033</v>
       </c>
       <c r="P103">
-        <v>0.5</v>
+        <v>-0.2017830909064499</v>
       </c>
       <c r="Q103">
-        <v>0.5</v>
+        <v>-0.1603422946682965</v>
       </c>
       <c r="R103">
-        <v>0.5</v>
+        <v>-0.118901498430143</v>
       </c>
       <c r="S103">
-        <v>0.5</v>
+        <v>-0.0774607021919896</v>
       </c>
       <c r="T103">
-        <v>0.5</v>
+        <v>-0.0360199059538361</v>
       </c>
       <c r="U103">
-        <v>0.5</v>
+        <v>0.0054208902843172</v>
       </c>
       <c r="V103">
-        <v>0.5</v>
+        <v>0.0468616865224707</v>
       </c>
       <c r="W103">
-        <v>0.5</v>
+        <v>0.08830248276062409</v>
       </c>
       <c r="X103">
-        <v>0.5</v>
+        <v>0.1297432789987776</v>
       </c>
       <c r="Y103">
-        <v>0.5</v>
+        <v>0.171184075236931</v>
       </c>
       <c r="Z103">
-        <v>0.5</v>
+        <v>0.2126248714750845</v>
       </c>
       <c r="AA103">
-        <v>0.5</v>
+        <v>0.2540656677132379</v>
       </c>
       <c r="AB103">
-        <v>0.5</v>
+        <v>0.2955064639513913</v>
       </c>
       <c r="AC103">
-        <v>0.5</v>
+        <v>0.3369472601895448</v>
       </c>
       <c r="AD103">
-        <v>0.5</v>
+        <v>0.3783880564276982</v>
       </c>
       <c r="AE103">
-        <v>0.5</v>
+        <v>0.4198288526658517</v>
       </c>
       <c r="AF103">
-        <v>0.5</v>
+        <v>0.4612696489040051</v>
       </c>
       <c r="AG103">
-        <v>0.5</v>
+        <v>0.5027104451421586</v>
       </c>
       <c r="AH103">
-        <v>0.5</v>
+        <v>0.544151241380312</v>
       </c>
       <c r="AI103">
-        <v>0.5</v>
+        <v>0.5855920376184655</v>
       </c>
       <c r="AJ103">
-        <v>0.5</v>
+        <v>0.6270328338566189</v>
       </c>
       <c r="AK103">
-        <v>0.5</v>
+        <v>0.6684736300947723</v>
       </c>
       <c r="AL103">
-        <v>0.5</v>
+        <v>0.7099144263329258</v>
       </c>
       <c r="AM103">
-        <v>0.5</v>
+        <v>0.7513552225710792</v>
       </c>
       <c r="AN103">
-        <v>0.5</v>
+        <v>0.7927960188092326</v>
       </c>
       <c r="AO103">
-        <v>0.5</v>
+        <v>0.8342368150473861</v>
       </c>
       <c r="AP103">
-        <v>0.5</v>
+        <v>0.8756776112855397</v>
       </c>
       <c r="AQ103">
-        <v>0.5</v>
+        <v>0.917118407523693</v>
       </c>
       <c r="AR103">
-        <v>0.5</v>
+        <v>0.9585592037618464</v>
       </c>
       <c r="AS103">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:45">
@@ -13701,112 +13701,112 @@
         <v>1</v>
       </c>
       <c r="J104">
-        <v>0.105163771605354</v>
+        <v>6.718199338717084</v>
       </c>
       <c r="K104">
-        <v>0.105163771605354</v>
+        <v>-0.7465095041143789</v>
       </c>
       <c r="L104">
-        <v>0.105163771605354</v>
+        <v>2.573960680040797</v>
       </c>
       <c r="M104">
-        <v>0.105163771605354</v>
+        <v>0.488576598075759</v>
       </c>
       <c r="N104">
-        <v>0.105163771605354</v>
+        <v>-4.251294817551111</v>
       </c>
       <c r="O104">
-        <v>0.105163771605354</v>
+        <v>1.888241204459722</v>
       </c>
       <c r="P104">
-        <v>0.105163771605354</v>
+        <v>1.858633164311064</v>
       </c>
       <c r="Q104">
-        <v>0.105163771605354</v>
+        <v>1.829025124162407</v>
       </c>
       <c r="R104">
-        <v>0.105163771605354</v>
+        <v>1.79941708401375</v>
       </c>
       <c r="S104">
-        <v>0.105163771605354</v>
+        <v>1.769809043865092</v>
       </c>
       <c r="T104">
-        <v>0.105163771605354</v>
+        <v>1.740201003716435</v>
       </c>
       <c r="U104">
-        <v>0.105163771605354</v>
+        <v>1.710592963567778</v>
       </c>
       <c r="V104">
-        <v>0.105163771605354</v>
+        <v>1.68098492341912</v>
       </c>
       <c r="W104">
-        <v>0.105163771605354</v>
+        <v>1.651376883270463</v>
       </c>
       <c r="X104">
-        <v>0.105163771605354</v>
+        <v>1.621768843121805</v>
       </c>
       <c r="Y104">
-        <v>0.105163771605354</v>
+        <v>1.592160802973148</v>
       </c>
       <c r="Z104">
-        <v>0.105163771605354</v>
+        <v>1.56255276282449</v>
       </c>
       <c r="AA104">
-        <v>0.105163771605354</v>
+        <v>1.532944722675833</v>
       </c>
       <c r="AB104">
-        <v>0.105163771605354</v>
+        <v>1.503336682527176</v>
       </c>
       <c r="AC104">
-        <v>0.105163771605354</v>
+        <v>1.473728642378518</v>
       </c>
       <c r="AD104">
-        <v>0.105163771605354</v>
+        <v>1.444120602229861</v>
       </c>
       <c r="AE104">
-        <v>0.105163771605354</v>
+        <v>1.414512562081204</v>
       </c>
       <c r="AF104">
-        <v>0.105163771605354</v>
+        <v>1.384904521932546</v>
       </c>
       <c r="AG104">
-        <v>0.105163771605354</v>
+        <v>1.355296481783889</v>
       </c>
       <c r="AH104">
-        <v>0.105163771605354</v>
+        <v>1.325688441635232</v>
       </c>
       <c r="AI104">
-        <v>0.105163771605354</v>
+        <v>1.296080401486574</v>
       </c>
       <c r="AJ104">
-        <v>0.105163771605354</v>
+        <v>1.266472361337916</v>
       </c>
       <c r="AK104">
-        <v>0.105163771605354</v>
+        <v>1.236864321189259</v>
       </c>
       <c r="AL104">
-        <v>0.105163771605354</v>
+        <v>1.207256281040602</v>
       </c>
       <c r="AM104">
-        <v>0.105163771605354</v>
+        <v>1.177648240891944</v>
       </c>
       <c r="AN104">
-        <v>0.105163771605354</v>
+        <v>1.148040200743287</v>
       </c>
       <c r="AO104">
-        <v>0.105163771605354</v>
+        <v>1.11843216059463</v>
       </c>
       <c r="AP104">
-        <v>0.105163771605354</v>
+        <v>1.088824120445972</v>
       </c>
       <c r="AQ104">
-        <v>0.105163771605354</v>
+        <v>1.059216080297315</v>
       </c>
       <c r="AR104">
-        <v>0.105163771605354</v>
+        <v>1.029608040148657</v>
       </c>
       <c r="AS104">
-        <v>0.105163771605354</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:45">
@@ -13823,112 +13823,112 @@
         <v>1</v>
       </c>
       <c r="J105">
-        <v>0.0551216230133952</v>
+        <v>5.707366154367945</v>
       </c>
       <c r="K105">
-        <v>0.0551216230133952</v>
+        <v>0.9023677686349</v>
       </c>
       <c r="L105">
-        <v>0.0551216230133952</v>
+        <v>5.633628006779221</v>
       </c>
       <c r="M105">
-        <v>0.0551216230133952</v>
+        <v>0.2304116078842274</v>
       </c>
       <c r="N105">
-        <v>0.0551216230133952</v>
+        <v>-4.992970707114286</v>
       </c>
       <c r="O105">
-        <v>0.0551216230133952</v>
+        <v>1.863705226304227</v>
       </c>
       <c r="P105">
-        <v>0.0551216230133952</v>
+        <v>1.834915052094086</v>
       </c>
       <c r="Q105">
-        <v>0.0551216230133952</v>
+        <v>1.806124877883945</v>
       </c>
       <c r="R105">
-        <v>0.0551216230133952</v>
+        <v>1.777334703673804</v>
       </c>
       <c r="S105">
-        <v>0.0551216230133952</v>
+        <v>1.748544529463663</v>
       </c>
       <c r="T105">
-        <v>0.0551216230133952</v>
+        <v>1.719754355253522</v>
       </c>
       <c r="U105">
-        <v>0.0551216230133952</v>
+        <v>1.690964181043382</v>
       </c>
       <c r="V105">
-        <v>0.0551216230133952</v>
+        <v>1.662174006833241</v>
       </c>
       <c r="W105">
-        <v>0.0551216230133952</v>
+        <v>1.6333838326231</v>
       </c>
       <c r="X105">
-        <v>0.0551216230133952</v>
+        <v>1.604593658412959</v>
       </c>
       <c r="Y105">
-        <v>0.0551216230133952</v>
+        <v>1.575803484202818</v>
       </c>
       <c r="Z105">
-        <v>0.0551216230133952</v>
+        <v>1.547013309992677</v>
       </c>
       <c r="AA105">
-        <v>0.0551216230133952</v>
+        <v>1.518223135782536</v>
       </c>
       <c r="AB105">
-        <v>0.0551216230133952</v>
+        <v>1.489432961572395</v>
       </c>
       <c r="AC105">
-        <v>0.0551216230133952</v>
+        <v>1.460642787362255</v>
       </c>
       <c r="AD105">
-        <v>0.0551216230133952</v>
+        <v>1.431852613152113</v>
       </c>
       <c r="AE105">
-        <v>0.0551216230133952</v>
+        <v>1.403062438941973</v>
       </c>
       <c r="AF105">
-        <v>0.0551216230133952</v>
+        <v>1.374272264731832</v>
       </c>
       <c r="AG105">
-        <v>0.0551216230133952</v>
+        <v>1.345482090521691</v>
       </c>
       <c r="AH105">
-        <v>0.0551216230133952</v>
+        <v>1.31669191631155</v>
       </c>
       <c r="AI105">
-        <v>0.0551216230133952</v>
+        <v>1.287901742101409</v>
       </c>
       <c r="AJ105">
-        <v>0.0551216230133952</v>
+        <v>1.259111567891268</v>
       </c>
       <c r="AK105">
-        <v>0.0551216230133952</v>
+        <v>1.230321393681127</v>
       </c>
       <c r="AL105">
-        <v>0.0551216230133952</v>
+        <v>1.201531219470986</v>
       </c>
       <c r="AM105">
-        <v>0.0551216230133952</v>
+        <v>1.172741045260845</v>
       </c>
       <c r="AN105">
-        <v>0.0551216230133952</v>
+        <v>1.143950871050704</v>
       </c>
       <c r="AO105">
-        <v>0.0551216230133952</v>
+        <v>1.115160696840563</v>
       </c>
       <c r="AP105">
-        <v>0.0551216230133952</v>
+        <v>1.086370522630423</v>
       </c>
       <c r="AQ105">
-        <v>0.0551216230133952</v>
+        <v>1.057580348420282</v>
       </c>
       <c r="AR105">
-        <v>0.0551216230133952</v>
+        <v>1.028790174210141</v>
       </c>
       <c r="AS105">
-        <v>0.0551216230133952</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:45">
@@ -14433,112 +14433,112 @@
         <v>1</v>
       </c>
       <c r="J110">
-        <v>0.0133281107617239</v>
+        <v>-0.6164598869382747</v>
       </c>
       <c r="K110">
-        <v>0.0133281107617239</v>
+        <v>2.629095245568181</v>
       </c>
       <c r="L110">
-        <v>0.0133281107617239</v>
+        <v>0.8206437167890808</v>
       </c>
       <c r="M110">
-        <v>0.0133281107617239</v>
+        <v>-0.0469948981551694</v>
       </c>
       <c r="N110">
-        <v>0.0133281107617239</v>
+        <v>-2.14190412643393</v>
       </c>
       <c r="O110">
-        <v>0.0133281107617239</v>
+        <v>0.8206437167890808</v>
       </c>
       <c r="P110">
-        <v>0.0133281107617239</v>
+        <v>0.8266222595627781</v>
       </c>
       <c r="Q110">
-        <v>0.0133281107617239</v>
+        <v>0.8326008023364754</v>
       </c>
       <c r="R110">
-        <v>0.0133281107617239</v>
+        <v>0.8385793451101727</v>
       </c>
       <c r="S110">
-        <v>0.0133281107617239</v>
+        <v>0.84455788788387</v>
       </c>
       <c r="T110">
-        <v>0.0133281107617239</v>
+        <v>0.8505364306575673</v>
       </c>
       <c r="U110">
-        <v>0.0133281107617239</v>
+        <v>0.8565149734312646</v>
       </c>
       <c r="V110">
-        <v>0.0133281107617239</v>
+        <v>0.862493516204962</v>
       </c>
       <c r="W110">
-        <v>0.0133281107617239</v>
+        <v>0.8684720589786592</v>
       </c>
       <c r="X110">
-        <v>0.0133281107617239</v>
+        <v>0.8744506017523566</v>
       </c>
       <c r="Y110">
-        <v>0.0133281107617239</v>
+        <v>0.8804291445260538</v>
       </c>
       <c r="Z110">
-        <v>0.0133281107617239</v>
+        <v>0.8864076872997512</v>
       </c>
       <c r="AA110">
-        <v>0.0133281107617239</v>
+        <v>0.8923862300734484</v>
       </c>
       <c r="AB110">
-        <v>0.0133281107617239</v>
+        <v>0.8983647728471458</v>
       </c>
       <c r="AC110">
-        <v>0.0133281107617239</v>
+        <v>0.9043433156208432</v>
       </c>
       <c r="AD110">
-        <v>0.0133281107617239</v>
+        <v>0.9103218583945404</v>
       </c>
       <c r="AE110">
-        <v>0.0133281107617239</v>
+        <v>0.9163004011682376</v>
       </c>
       <c r="AF110">
-        <v>0.0133281107617239</v>
+        <v>0.922278943941935</v>
       </c>
       <c r="AG110">
-        <v>0.0133281107617239</v>
+        <v>0.9282574867156324</v>
       </c>
       <c r="AH110">
-        <v>0.0133281107617239</v>
+        <v>0.9342360294893296</v>
       </c>
       <c r="AI110">
-        <v>0.0133281107617239</v>
+        <v>0.940214572263027</v>
       </c>
       <c r="AJ110">
-        <v>0.0133281107617239</v>
+        <v>0.9461931150367242</v>
       </c>
       <c r="AK110">
-        <v>0.0133281107617239</v>
+        <v>0.9521716578104216</v>
       </c>
       <c r="AL110">
-        <v>0.0133281107617239</v>
+        <v>0.9581502005841188</v>
       </c>
       <c r="AM110">
-        <v>0.0133281107617239</v>
+        <v>0.9641287433578162</v>
       </c>
       <c r="AN110">
-        <v>0.0133281107617239</v>
+        <v>0.9701072861315134</v>
       </c>
       <c r="AO110">
-        <v>0.0133281107617239</v>
+        <v>0.9760858289052108</v>
       </c>
       <c r="AP110">
-        <v>0.0133281107617239</v>
+        <v>0.982064371678908</v>
       </c>
       <c r="AQ110">
-        <v>0.0133281107617239</v>
+        <v>0.9880429144526054</v>
       </c>
       <c r="AR110">
-        <v>0.0133281107617239</v>
+        <v>0.9940214572263026</v>
       </c>
       <c r="AS110">
-        <v>0.0133281107617239</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:45">
@@ -14555,112 +14555,112 @@
         <v>1</v>
       </c>
       <c r="J111">
-        <v>0.0144623715219995</v>
+        <v>1.955454664122266</v>
       </c>
       <c r="K111">
-        <v>0.0144623715219995</v>
+        <v>0.8916195217639044</v>
       </c>
       <c r="L111">
-        <v>0.0144623715219995</v>
+        <v>-0.4714583246870509</v>
       </c>
       <c r="M111">
-        <v>0.0144623715219995</v>
+        <v>0.1062424543088741</v>
       </c>
       <c r="N111">
-        <v>0.0144623715219995</v>
+        <v>-2.341355082907922</v>
       </c>
       <c r="O111">
-        <v>0.0144623715219995</v>
+        <v>1.161229804827933</v>
       </c>
       <c r="P111">
-        <v>0.0144623715219995</v>
+        <v>1.155855478000335</v>
       </c>
       <c r="Q111">
-        <v>0.0144623715219995</v>
+        <v>1.150481151172738</v>
       </c>
       <c r="R111">
-        <v>0.0144623715219995</v>
+        <v>1.14510682434514</v>
       </c>
       <c r="S111">
-        <v>0.0144623715219995</v>
+        <v>1.139732497517542</v>
       </c>
       <c r="T111">
-        <v>0.0144623715219995</v>
+        <v>1.134358170689944</v>
       </c>
       <c r="U111">
-        <v>0.0144623715219995</v>
+        <v>1.128983843862346</v>
       </c>
       <c r="V111">
-        <v>0.0144623715219995</v>
+        <v>1.123609517034749</v>
       </c>
       <c r="W111">
-        <v>0.0144623715219995</v>
+        <v>1.118235190207151</v>
       </c>
       <c r="X111">
-        <v>0.0144623715219995</v>
+        <v>1.112860863379553</v>
       </c>
       <c r="Y111">
-        <v>0.0144623715219995</v>
+        <v>1.107486536551956</v>
       </c>
       <c r="Z111">
-        <v>0.0144623715219995</v>
+        <v>1.102112209724358</v>
       </c>
       <c r="AA111">
-        <v>0.0144623715219996</v>
+        <v>1.09673788289676</v>
       </c>
       <c r="AB111">
-        <v>0.0144623715219996</v>
+        <v>1.091363556069162</v>
       </c>
       <c r="AC111">
-        <v>0.0144623715219996</v>
+        <v>1.085989229241564</v>
       </c>
       <c r="AD111">
-        <v>0.0144623715219996</v>
+        <v>1.080614902413967</v>
       </c>
       <c r="AE111">
-        <v>0.0144623715219996</v>
+        <v>1.075240575586369</v>
       </c>
       <c r="AF111">
-        <v>0.0144623715219996</v>
+        <v>1.069866248758771</v>
       </c>
       <c r="AG111">
-        <v>0.0144623715219996</v>
+        <v>1.064491921931173</v>
       </c>
       <c r="AH111">
-        <v>0.0144623715219996</v>
+        <v>1.059117595103576</v>
       </c>
       <c r="AI111">
-        <v>0.0144623715219996</v>
+        <v>1.053743268275978</v>
       </c>
       <c r="AJ111">
-        <v>0.0144623715219996</v>
+        <v>1.04836894144838</v>
       </c>
       <c r="AK111">
-        <v>0.0144623715219996</v>
+        <v>1.042994614620782</v>
       </c>
       <c r="AL111">
-        <v>0.0144623715219996</v>
+        <v>1.037620287793184</v>
       </c>
       <c r="AM111">
-        <v>0.0144623715219996</v>
+        <v>1.032245960965587</v>
       </c>
       <c r="AN111">
-        <v>0.0144623715219996</v>
+        <v>1.026871634137989</v>
       </c>
       <c r="AO111">
-        <v>0.0144623715219996</v>
+        <v>1.021497307310391</v>
       </c>
       <c r="AP111">
-        <v>0.0144623715219996</v>
+        <v>1.016122980482793</v>
       </c>
       <c r="AQ111">
-        <v>0.0144623715219996</v>
+        <v>1.010748653655196</v>
       </c>
       <c r="AR111">
-        <v>0.0144623715219996</v>
+        <v>1.005374326827598</v>
       </c>
       <c r="AS111">
-        <v>0.0144623715219996</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:45">
@@ -17150,94 +17150,94 @@
         <v>11716204.15</v>
       </c>
       <c r="P132">
-        <v>11716200</v>
+        <v>11716204.15</v>
       </c>
       <c r="Q132">
-        <v>12989145.5</v>
+        <v>11716204.15</v>
       </c>
       <c r="R132">
-        <v>14400394.4</v>
+        <v>11716204.15</v>
       </c>
       <c r="S132">
-        <v>15964973.13</v>
+        <v>11716204.15</v>
       </c>
       <c r="T132">
-        <v>17699540.72</v>
+        <v>11716204.15</v>
       </c>
       <c r="U132">
-        <v>19622566.17</v>
+        <v>11716204.15</v>
       </c>
       <c r="V132">
-        <v>21754525.11</v>
+        <v>11716204.15</v>
       </c>
       <c r="W132">
-        <v>24118117.82</v>
+        <v>11716204.15</v>
       </c>
       <c r="X132">
-        <v>26738510.92</v>
+        <v>11716204.15</v>
       </c>
       <c r="Y132">
-        <v>29643605.33</v>
+        <v>11716204.15</v>
       </c>
       <c r="Z132">
-        <v>32864333.39</v>
+        <v>11716204.15</v>
       </c>
       <c r="AA132">
-        <v>36434988.16</v>
+        <v>11716204.15</v>
       </c>
       <c r="AB132">
-        <v>40393588.59</v>
+        <v>11716204.15</v>
       </c>
       <c r="AC132">
-        <v>44782284.33</v>
+        <v>11716204.15</v>
       </c>
       <c r="AD132">
-        <v>49647804.5</v>
+        <v>11716204.15</v>
       </c>
       <c r="AE132">
-        <v>55041955.29</v>
+        <v>11716204.15</v>
       </c>
       <c r="AF132">
-        <v>61022171.52</v>
+        <v>11716204.15</v>
       </c>
       <c r="AG132">
-        <v>67652128.23</v>
+        <v>11716204.15</v>
       </c>
       <c r="AH132">
-        <v>75002418.64</v>
+        <v>11716204.15</v>
       </c>
       <c r="AI132">
-        <v>83151305.78</v>
+        <v>11716204.15</v>
       </c>
       <c r="AJ132">
-        <v>92185555.84999999</v>
+        <v>11716204.15</v>
       </c>
       <c r="AK132">
-        <v>102201362.1</v>
+        <v>11716204.15</v>
       </c>
       <c r="AL132">
-        <v>113305368.8</v>
+        <v>11716204.15</v>
       </c>
       <c r="AM132">
-        <v>125615807.4</v>
+        <v>11716204.15</v>
       </c>
       <c r="AN132">
-        <v>139263754.4</v>
+        <v>11716204.15</v>
       </c>
       <c r="AO132">
-        <v>154394528</v>
+        <v>11716204.15</v>
       </c>
       <c r="AP132">
-        <v>171169234.9</v>
+        <v>11716204.15</v>
       </c>
       <c r="AQ132">
-        <v>189766485.5</v>
+        <v>11716204.15</v>
       </c>
       <c r="AR132">
-        <v>210384296.2</v>
+        <v>11716204.15</v>
       </c>
       <c r="AS132">
-        <v>233242197.6</v>
+        <v>11716204.15</v>
       </c>
     </row>
     <row r="133" spans="1:45">
@@ -17272,94 +17272,94 @@
         <v>396084.724394585</v>
       </c>
       <c r="P133">
-        <v>396084.7</v>
+        <v>396084.724394585</v>
       </c>
       <c r="Q133">
-        <v>444097.147900309</v>
+        <v>396084.724394585</v>
       </c>
       <c r="R133">
-        <v>497929.550859168</v>
+        <v>396084.724394585</v>
       </c>
       <c r="S133">
-        <v>558287.390025008</v>
+        <v>396084.724394585</v>
       </c>
       <c r="T133">
-        <v>625961.663297808</v>
+        <v>396084.724394585</v>
       </c>
       <c r="U133">
-        <v>701839.251466895</v>
+        <v>396084.724394585</v>
       </c>
       <c r="V133">
-        <v>786914.540907376</v>
+        <v>396084.724394585</v>
       </c>
       <c r="W133">
-        <v>882302.455152259</v>
+        <v>396084.724394585</v>
       </c>
       <c r="X133">
-        <v>989253.0661208529</v>
+        <v>396084.724394585</v>
       </c>
       <c r="Y133">
-        <v>1109167.9764856</v>
+        <v>396084.724394585</v>
       </c>
       <c r="Z133">
-        <v>1243618.68787058</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AA133">
-        <v>1394367.19559945</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AB133">
-        <v>1563389.0798899</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AC133">
-        <v>1752899.39610793</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AD133">
-        <v>1965381.70337734</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AE133">
-        <v>2203620.61196842</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AF133">
-        <v>2470738.27600387</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AG133">
-        <v>2770235.30972401</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AH133">
-        <v>3106036.66352465</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AI133">
-        <v>3482543.06097935</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AJ133">
-        <v>3904688.67093563</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AK133">
-        <v>4378005.77048586</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AL133">
-        <v>4908697.24623007</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AM133">
-        <v>5503717.88396995</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AN133">
-        <v>6170865.51214671</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AO133">
-        <v>6918883.19347031</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AP133">
-        <v>7757573.80397562</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AQ133">
-        <v>8697928.501080001</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AR133">
-        <v>9752270.7642341</v>
+        <v>396084.724394585</v>
       </c>
       <c r="AS133">
-        <v>10934417.8958388</v>
+        <v>396084.724394585</v>
       </c>
     </row>
     <row r="134" spans="1:45">
@@ -17394,94 +17394,94 @@
         <v>164387.310564658</v>
       </c>
       <c r="P134">
-        <v>164387.3</v>
+        <v>164387.310564658</v>
       </c>
       <c r="Q134">
-        <v>188938.603749526</v>
+        <v>164387.310564658</v>
       </c>
       <c r="R134">
-        <v>217156.653748924</v>
+        <v>164387.310564658</v>
       </c>
       <c r="S134">
-        <v>249589.079899975</v>
+        <v>164387.310564658</v>
       </c>
       <c r="T134">
-        <v>286865.300831817</v>
+        <v>164387.310564658</v>
       </c>
       <c r="U134">
-        <v>329708.73907748</v>
+        <v>164387.310564658</v>
       </c>
       <c r="V134">
-        <v>378950.860591517</v>
+        <v>164387.310564658</v>
       </c>
       <c r="W134">
-        <v>435547.311074777</v>
+        <v>164387.310564658</v>
       </c>
       <c r="X134">
-        <v>500596.462265206</v>
+        <v>164387.310564658</v>
       </c>
       <c r="Y134">
-        <v>575360.728124012</v>
+        <v>164387.310564658</v>
       </c>
       <c r="Z134">
-        <v>661291.064602081</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AA134">
-        <v>760055.128455514</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AB134">
-        <v>873569.641590632</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AC134">
-        <v>1004037.58903582</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AD134">
-        <v>1153990.97244415</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AE134">
-        <v>1326339.94884737</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AF134">
-        <v>1524429.30830082</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AG134">
-        <v>1752103.38648553</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AH134">
-        <v>2013780.67203119</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AI134">
-        <v>2314539.55647034</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AJ134">
-        <v>2660216.89097974</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AK134">
-        <v>3057521.26260738</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AL134">
-        <v>3514163.18834562</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AM134">
-        <v>4039004.75373709</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AN134">
-        <v>4642231.60006147</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AO134">
-        <v>5335550.59787188</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AP134">
-        <v>6132417.04314667</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AQ134">
-        <v>7048295.78527009</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AR134">
-        <v>8100961.35457303</v>
+        <v>164387.310564658</v>
       </c>
       <c r="AS134">
-        <v>9310842.91403229</v>
+        <v>164387.310564658</v>
       </c>
     </row>
     <row r="135" spans="1:45">
@@ -17516,94 +17516,94 @@
         <v>47884.9158863971</v>
       </c>
       <c r="P135">
-        <v>47884.92</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="Q135">
-        <v>58332.379113195</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="R135">
-        <v>71059.24898706131</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="S135">
-        <v>86562.84799916499</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="T135">
-        <v>105448.998695313</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="U135">
-        <v>128455.701064172</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="V135">
-        <v>156481.970810989</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="W135">
-        <v>190622.969522065</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="X135">
-        <v>232212.799475161</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="Y135">
-        <v>282876.63535663</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="Z135">
-        <v>344594.229997419</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AA135">
-        <v>419777.27569408</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AB135">
-        <v>511363.64410531</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AC135">
-        <v>622932.187265967</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AD135">
-        <v>758842.585711957</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AE135">
-        <v>924405.708456588</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AF135">
-        <v>1126091.14184782</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AG135">
-        <v>1371779.99675634</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AH135">
-        <v>1671072.872852</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AI135">
-        <v>2035665.01405826</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AJ135">
-        <v>2479803.3148539</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AK135">
-        <v>3020843.03551547</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AL135">
-        <v>3679925.98064575</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AM135">
-        <v>4482806.64166347</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AN135">
-        <v>5460858.5858066</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AO135">
-        <v>6652300.41755977</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AP135">
-        <v>8103689.21848386</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AQ135">
-        <v>9871739.82347912</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AR135">
-        <v>12025541.0239802</v>
+        <v>47884.9158863971</v>
       </c>
       <c r="AS135">
-        <v>14649255.2989979</v>
+        <v>47884.9158863971</v>
       </c>
     </row>
     <row r="136" spans="1:45">
@@ -17638,94 +17638,94 @@
         <v>360180.512016125</v>
       </c>
       <c r="P136">
-        <v>360180.5</v>
+        <v>360180.512016125</v>
       </c>
       <c r="Q136">
-        <v>413263.966202129</v>
+        <v>360180.512016125</v>
       </c>
       <c r="R136">
-        <v>474170.883101985</v>
+        <v>360180.512016125</v>
       </c>
       <c r="S136">
-        <v>544054.272255972</v>
+        <v>360180.512016125</v>
       </c>
       <c r="T136">
-        <v>624237.0877427181</v>
+        <v>360180.512016125</v>
       </c>
       <c r="U136">
-        <v>716237.260848441</v>
+        <v>360180.512016125</v>
       </c>
       <c r="V136">
-        <v>821796.4358425169</v>
+        <v>360180.512016125</v>
       </c>
       <c r="W136">
-        <v>942912.940836753</v>
+        <v>360180.512016125</v>
       </c>
       <c r="X136">
-        <v>1081879.61789578</v>
+        <v>360180.512016125</v>
       </c>
       <c r="Y136">
-        <v>1241327.22855583</v>
+        <v>360180.512016125</v>
       </c>
       <c r="Z136">
-        <v>1424274.25645663</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AA136">
-        <v>1634184.04989403</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AB136">
-        <v>1875030.38605217</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AC136">
-        <v>2151372.69810395</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AD136">
-        <v>2468442.38929485</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AE136">
-        <v>2832241.86801187</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AF136">
-        <v>3249658.17865851</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AG136">
-        <v>3728593.37946836</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AH136">
-        <v>4278114.13542402</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AI136">
-        <v>4908623.35820713</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AJ136">
-        <v>5632057.14247466</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AK136">
-        <v>6462110.72663874</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AL136">
-        <v>7414497.75578647</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AM136">
-        <v>8507247.75481488</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AN136">
-        <v>9761047.4432096</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AO136">
-        <v>11199632.3528563</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AP136">
-        <v>12850236.1625548</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AQ136">
-        <v>14744106.2555341</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AR136">
-        <v>16917095.2599257</v>
+        <v>360180.512016125</v>
       </c>
       <c r="AS136">
-        <v>19410339.7705765</v>
+        <v>360180.512016125</v>
       </c>
     </row>
     <row r="137" spans="1:45">
@@ -17760,94 +17760,94 @@
         <v>2900883.42222097</v>
       </c>
       <c r="P137">
-        <v>2900883</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="Q137">
-        <v>3447629.66446935</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="R137">
-        <v>4097424.92314548</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="S137">
-        <v>4869690.95719213</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="T137">
-        <v>5787510.5617199</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="U137">
-        <v>6878317.08345879</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="V137">
-        <v>8174714.3950855</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="W137">
-        <v>9715451.414986869</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="X137">
-        <v>11546580.3005566</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="Y137">
-        <v>13722832.9330677</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="Z137">
-        <v>16309256.8368325</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AA137">
-        <v>19383159.4297712</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AB137">
-        <v>23036418.7184447</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AC137">
-        <v>27378229.5035156</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AD137">
-        <v>32538367.1788798</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AE137">
-        <v>38671066.6784223</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AF137">
-        <v>45959632.5109289</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AG137">
-        <v>54621917.6756829</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AH137">
-        <v>64916835.2218573</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AI137">
-        <v>77152097.0802144</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AJ137">
-        <v>91693411.4784244</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AK137">
-        <v>108975413.847925</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AL137">
-        <v>129514657.943781</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AM137">
-        <v>153925055.478136</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AN137">
-        <v>182936225.753162</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AO137">
-        <v>217415303.758429</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AP137">
-        <v>258392858.570019</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AQ137">
-        <v>307093696.744416</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AR137">
-        <v>364973471.411154</v>
+        <v>2900883.42222097</v>
       </c>
       <c r="AS137">
-        <v>433762191.298804</v>
+        <v>2900883.42222097</v>
       </c>
     </row>
     <row r="138" spans="1:45">
@@ -17882,94 +17882,94 @@
         <v>18342123.8688977</v>
       </c>
       <c r="P138">
-        <v>18342120</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="Q138">
-        <v>27053966.0068558</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="R138">
-        <v>39903624.9190447</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="S138">
-        <v>58856408.75265</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="T138">
-        <v>86811081.9076422</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="U138">
-        <v>128043217.411495</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="V138">
-        <v>188859131.401333</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="W138">
-        <v>278560412.919334</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="X138">
-        <v>410866570.602273</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="Y138">
-        <v>606013385.280835</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="Z138">
-        <v>893847904.4454679</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AA138">
-        <v>1318393447.54952</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AB138">
-        <v>1944582824.32271</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AC138">
-        <v>2868189589.13921</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AD138">
-        <v>4230476283.31893</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AE138">
-        <v>6239800064.64465</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AF138">
-        <v>9203480232.29991</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AG138">
-        <v>13574801677.7456</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AH138">
-        <v>20022343280.9042</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AI138">
-        <v>29532234796.1511</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AJ138">
-        <v>43558982074.1307</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AK138">
-        <v>64247928828.6616</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AL138">
-        <v>94763379726.08949</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AM138">
-        <v>139772570117.543</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AN138">
-        <v>206159503953.244</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AO138">
-        <v>304077838981.607</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AP138">
-        <v>448503854475.195</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AQ138">
-        <v>661527022662.359</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AR138">
-        <v>975728519043.817</v>
+        <v>18342123.8688977</v>
       </c>
       <c r="AS138">
-        <v>1439164403358.56</v>
+        <v>18342123.8688977</v>
       </c>
     </row>
     <row r="139" spans="1:45">
@@ -18004,94 +18004,94 @@
         <v>409925.67260198</v>
       </c>
       <c r="P139">
-        <v>409925.7</v>
+        <v>409925.67260198</v>
       </c>
       <c r="Q139">
-        <v>443115.317903472</v>
+        <v>409925.67260198</v>
       </c>
       <c r="R139">
-        <v>478992.131892914</v>
+        <v>409925.67260198</v>
       </c>
       <c r="S139">
-        <v>517773.710691938</v>
+        <v>409925.67260198</v>
       </c>
       <c r="T139">
-        <v>559695.2384671631</v>
+        <v>409925.67260198</v>
       </c>
       <c r="U139">
-        <v>605010.941061847</v>
+        <v>409925.67260198</v>
       </c>
       <c r="V139">
-        <v>653995.6277044819</v>
+        <v>409925.67260198</v>
       </c>
       <c r="W139">
-        <v>706946.35754175</v>
+        <v>409925.67260198</v>
       </c>
       <c r="X139">
-        <v>764184.241102263</v>
+        <v>409925.67260198</v>
       </c>
       <c r="Y139">
-        <v>826056.387615739</v>
+        <v>409925.67260198</v>
       </c>
       <c r="Z139">
-        <v>892938.009996791</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AA139">
-        <v>965234.7002586609</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AB139">
-        <v>1043384.88915572</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AC139">
-        <v>1127862.50497081</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AD139">
-        <v>1219179.84757127</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AE139">
-        <v>1317890.69516269</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AF139">
-        <v>1424593.66258091</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AG139">
-        <v>1539935.83148802</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AH139">
-        <v>1664616.67448702</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AI139">
-        <v>1799392.29695219</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AJ139">
-        <v>1945080.02229924</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AK139">
-        <v>2102563.34850149</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AL139">
-        <v>2272797.30591038</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AM139">
-        <v>2456814.24887152</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AN139">
-        <v>2655730.11625884</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AO139">
-        <v>2870751.19889253</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AP139">
-        <v>3103181.45488081</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AQ139">
-        <v>3354430.41724798</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AR139">
-        <v>3626021.74180325</v>
+        <v>409925.67260198</v>
       </c>
       <c r="AS139">
-        <v>3919602.44708748</v>
+        <v>409925.67260198</v>
       </c>
     </row>
     <row r="140" spans="1:45">
@@ -18126,94 +18126,94 @@
         <v>329696.44684097</v>
       </c>
       <c r="P140">
-        <v>329696.4</v>
+        <v>329696.44684097</v>
       </c>
       <c r="Q140">
-        <v>368017.662436574</v>
+        <v>329696.44684097</v>
       </c>
       <c r="R140">
-        <v>410793.080741191</v>
+        <v>329696.44684097</v>
       </c>
       <c r="S140">
-        <v>458540.370229982</v>
+        <v>329696.44684097</v>
       </c>
       <c r="T140">
-        <v>511837.421290736</v>
+        <v>329696.44684097</v>
       </c>
       <c r="U140">
-        <v>571329.293650099</v>
+        <v>329696.44684097</v>
       </c>
       <c r="V140">
-        <v>637736.023598221</v>
+        <v>329696.44684097</v>
       </c>
       <c r="W140">
-        <v>711861.338662518</v>
+        <v>329696.44684097</v>
       </c>
       <c r="X140">
-        <v>794602.385205147</v>
+        <v>329696.44684097</v>
       </c>
       <c r="Y140">
-        <v>886960.586678303</v>
+        <v>329696.44684097</v>
       </c>
       <c r="Z140">
-        <v>990053.763955935</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AA140">
-        <v>1105129.66443551</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AB140">
-        <v>1233581.06365393</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AC140">
-        <v>1376962.62219406</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AD140">
-        <v>1537009.7019027</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AE140">
-        <v>1715659.36915467</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AF140">
-        <v>1915073.8393677</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AG140">
-        <v>2137666.64651945</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AH140">
-        <v>2386131.85439914</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AI140">
-        <v>2663476.66314045</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AJ140">
-        <v>2973057.80567611</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AK140">
-        <v>3318622.17462409</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AL140">
-        <v>3704352.17131681</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AM140">
-        <v>4134916.32583753</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AN140">
-        <v>4615525.8007232</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AO140">
-        <v>5151997.46220416</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AP140">
-        <v>5750824.28233835</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AQ140">
-        <v>6419253.92412428</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AR140">
-        <v>7165376.46071665</v>
+        <v>329696.44684097</v>
       </c>
       <c r="AS140">
-        <v>7998222.29041929</v>
+        <v>329696.44684097</v>
       </c>
     </row>
     <row r="141" spans="1:45">
@@ -18980,94 +18980,94 @@
         <v>18058.4206012802</v>
       </c>
       <c r="P147">
-        <v>18058.42</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="Q147">
-        <v>20182.4561169878</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="R147">
-        <v>22556.3219215269</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="S147">
-        <v>25209.4024472721</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="T147">
-        <v>28174.5390032768</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="U147">
-        <v>31488.4357020158</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="V147">
-        <v>35192.1138033409</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="W147">
-        <v>39331.4194984926</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="X147">
-        <v>43957.5914198012</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="Y147">
-        <v>49127.8949010278</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="Z147">
-        <v>54906.3308395742</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AA147">
-        <v>61364.4279352525</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AB147">
-        <v>68582.1281123872</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AC147">
-        <v>76648.7760854988</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AD147">
-        <v>85664.2253179627</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AE147">
-        <v>95740.07406381849</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AF147">
-        <v>107001.04679314</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AG147">
-        <v>119586.538101025</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AH147">
-        <v>133652.338211562</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AI147">
-        <v>149372.561436032</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AJ147">
-        <v>166941.801456871</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AK147">
-        <v>186577.540116698</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AL147">
-        <v>208522.839529748</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AM147">
-        <v>233049.350840153</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AN147">
-        <v>260460.676871171</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AO147">
-        <v>291096.130290101</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AP147">
-        <v>325334.933809543</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AQ147">
-        <v>363600.914417443</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AR147">
-        <v>406367.749743703</v>
+        <v>18058.4206012802</v>
       </c>
       <c r="AS147">
-        <v>454164.831505823</v>
+        <v>18058.4206012802</v>
       </c>
     </row>
     <row r="148" spans="1:45">
@@ -19102,94 +19102,94 @@
         <v>127826.724739431</v>
       </c>
       <c r="P148">
-        <v>127826.7</v>
+        <v>127826.724739431</v>
       </c>
       <c r="Q148">
-        <v>143770.092722495</v>
+        <v>127826.724739431</v>
       </c>
       <c r="R148">
-        <v>161702.050991185</v>
+        <v>127826.724739431</v>
       </c>
       <c r="S148">
-        <v>181870.601872851</v>
+        <v>127826.724739431</v>
       </c>
       <c r="T148">
-        <v>204554.708012926</v>
+        <v>127826.724739431</v>
       </c>
       <c r="U148">
-        <v>230068.126125773</v>
+        <v>127826.724739431</v>
       </c>
       <c r="V148">
-        <v>258763.746741433</v>
+        <v>127826.724739431</v>
       </c>
       <c r="W148">
-        <v>291038.47523433</v>
+        <v>127826.724739431</v>
       </c>
       <c r="X148">
-        <v>327338.721646208</v>
+        <v>127826.724739431</v>
       </c>
       <c r="Y148">
-        <v>368166.575236148</v>
+        <v>127826.724739431</v>
       </c>
       <c r="Z148">
-        <v>414086.749161361</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AA148">
-        <v>465734.391344575</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AB148">
-        <v>523823.869564532</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AC148">
-        <v>589158.652281168</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AD148">
-        <v>662642.421862756</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AE148">
-        <v>745291.573928353</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AF148">
-        <v>838249.275691025</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AG148">
-        <v>942801.2777507619</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AH148">
-        <v>1060393.69803894</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AI148">
-        <v>1192653.02389413</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AJ148">
-        <v>1341408.60892931</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AK148">
-        <v>1508717.97585732</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AL148">
-        <v>1696895.27525237</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AM148">
-        <v>1908543.29387677</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AN148">
-        <v>2146589.45529815</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AO148">
-        <v>2414326.31074217</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AP148">
-        <v>2715457.08023255</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AQ148">
-        <v>3054146.87392376</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AR148">
-        <v>3435080.3020976</v>
+        <v>127826.724739431</v>
       </c>
       <c r="AS148">
-        <v>3863526.27066011</v>
+        <v>127826.724739431</v>
       </c>
     </row>
     <row r="149" spans="1:45">
